--- a/Project-Tracking/Timesheets/161288 - HRMS - TimeSheet.xlsx
+++ b/Project-Tracking/Timesheets/161288 - HRMS - TimeSheet.xlsx
@@ -922,7 +922,63 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1556,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1952,11 +2008,11 @@
       </c>
       <c r="Q5" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R5" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S5" s="21">
         <f t="shared" si="0"/>
@@ -2024,7 +2080,7 @@
       </c>
       <c r="AI5" s="22">
         <f t="shared" ref="AI5:AI12" si="1">SUM(D5:AH5)</f>
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2067,7 +2123,7 @@
       </c>
       <c r="L6" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="24">
         <f t="shared" si="2"/>
@@ -2087,7 +2143,7 @@
       </c>
       <c r="Q6" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R6" s="23">
         <f t="shared" si="2"/>
@@ -2159,7 +2215,7 @@
       </c>
       <c r="AI6" s="25">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2202,7 +2258,7 @@
       </c>
       <c r="L7" s="27">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M7" s="27">
         <f t="shared" si="3"/>
@@ -2222,11 +2278,11 @@
       </c>
       <c r="Q7" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R7" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S7" s="27">
         <f t="shared" si="3"/>
@@ -2294,7 +2350,7 @@
       </c>
       <c r="AI7" s="28">
         <f t="shared" si="1"/>
-        <v>26.5</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2595,11 +2651,13 @@
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
+      <c r="L14" s="36">
+        <v>1</v>
+      </c>
       <c r="M14" s="36"/>
       <c r="N14" s="36"/>
       <c r="O14" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" s="36"/>
       <c r="Q14" s="36"/>
@@ -2838,7 +2896,7 @@
       <c r="M19" s="36"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="P19" s="36"/>
       <c r="Q19" s="36"/>
@@ -2861,7 +2919,7 @@
       <c r="AH19" s="36"/>
       <c r="AI19" s="38">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3079,7 +3137,9 @@
       <c r="N24" s="36"/>
       <c r="O24" s="36"/>
       <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
+      <c r="Q24" s="36">
+        <v>1</v>
+      </c>
       <c r="R24" s="36"/>
       <c r="S24" s="36"/>
       <c r="T24" s="36"/>
@@ -3099,7 +3159,7 @@
       <c r="AH24" s="36"/>
       <c r="AI24" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3125,7 +3185,9 @@
       <c r="N25" s="36"/>
       <c r="O25" s="36"/>
       <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
+      <c r="Q25" s="36">
+        <v>1</v>
+      </c>
       <c r="R25" s="36"/>
       <c r="S25" s="36"/>
       <c r="T25" s="36"/>
@@ -3145,7 +3207,7 @@
       <c r="AH25" s="36"/>
       <c r="AI25" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3171,7 +3233,9 @@
       <c r="N26" s="36"/>
       <c r="O26" s="36"/>
       <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
+      <c r="Q26" s="36">
+        <v>1</v>
+      </c>
       <c r="R26" s="36"/>
       <c r="S26" s="36"/>
       <c r="T26" s="36"/>
@@ -3191,7 +3255,7 @@
       <c r="AH26" s="36"/>
       <c r="AI26" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3217,7 +3281,9 @@
       <c r="N27" s="36"/>
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
+      <c r="Q27" s="36">
+        <v>2</v>
+      </c>
       <c r="R27" s="36"/>
       <c r="S27" s="36"/>
       <c r="T27" s="36"/>
@@ -3237,7 +3303,7 @@
       <c r="AH27" s="36"/>
       <c r="AI27" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3263,7 +3329,9 @@
       <c r="N28" s="36"/>
       <c r="O28" s="36"/>
       <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
+      <c r="Q28" s="36">
+        <v>2</v>
+      </c>
       <c r="R28" s="36"/>
       <c r="S28" s="36"/>
       <c r="T28" s="36"/>
@@ -3283,7 +3351,7 @@
       <c r="AH28" s="36"/>
       <c r="AI28" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3309,7 +3377,9 @@
       <c r="N29" s="36"/>
       <c r="O29" s="36"/>
       <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
+      <c r="Q29" s="36">
+        <v>1</v>
+      </c>
       <c r="R29" s="36"/>
       <c r="S29" s="36"/>
       <c r="T29" s="36"/>
@@ -3329,7 +3399,7 @@
       <c r="AH29" s="36"/>
       <c r="AI29" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3355,7 +3425,9 @@
       <c r="N30" s="36"/>
       <c r="O30" s="36"/>
       <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
+      <c r="Q30" s="36">
+        <v>1</v>
+      </c>
       <c r="R30" s="36"/>
       <c r="S30" s="36"/>
       <c r="T30" s="36"/>
@@ -3375,7 +3447,7 @@
       <c r="AH30" s="36"/>
       <c r="AI30" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3401,7 +3473,9 @@
       <c r="N31" s="36"/>
       <c r="O31" s="36"/>
       <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
+      <c r="Q31" s="36">
+        <v>1</v>
+      </c>
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
       <c r="T31" s="36"/>
@@ -3421,7 +3495,7 @@
       <c r="AH31" s="36"/>
       <c r="AI31" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3448,7 +3522,9 @@
       <c r="O32" s="36"/>
       <c r="P32" s="36"/>
       <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
+      <c r="R32" s="36">
+        <v>3</v>
+      </c>
       <c r="S32" s="36"/>
       <c r="T32" s="36"/>
       <c r="U32" s="36"/>
@@ -3467,7 +3543,7 @@
       <c r="AH32" s="36"/>
       <c r="AI32" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
@@ -3494,7 +3570,9 @@
       <c r="O33" s="36"/>
       <c r="P33" s="36"/>
       <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
+      <c r="R33" s="36">
+        <v>1</v>
+      </c>
       <c r="S33" s="36"/>
       <c r="T33" s="36"/>
       <c r="U33" s="36"/>
@@ -3513,7 +3591,7 @@
       <c r="AH33" s="36"/>
       <c r="AI33" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3526,19 +3604,51 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
   </mergeCells>
-  <conditionalFormatting sqref="O9:P22 O23 D29:U33 O24:P28 D9:N28 Q9:U28 V9:AH33">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="D29:U33 D24:P28 Q9:U28 V9:AH33 D9:K23">
+    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
       <formula>D$3="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
       <formula>D$3&lt;&gt;"S"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O20:O23 L15:N23 M14:N14 L9:P13 O15:P19 P14">
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+      <formula>L$3="S"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+      <formula>L$3&lt;&gt;"S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P20:P22">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+      <formula>P$3="S"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+      <formula>P$3&lt;&gt;"S"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P23">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>O$3="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+      <formula>O$3&lt;&gt;"S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="expression" dxfId="3" priority="9" stopIfTrue="1">
+      <formula>O$3="S"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="10" stopIfTrue="1">
+      <formula>O$3&lt;&gt;"S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>O$3="S"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>O$3&lt;&gt;"S"</formula>
     </cfRule>
   </conditionalFormatting>
